--- a/material_preparation_step/passenger_manifest_table.xlsx
+++ b/material_preparation_step/passenger_manifest_table.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25310"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/avkashchauhan99/work/avkash/udacity/nd073-c3-building-computer-vision-solutions-with-azure-project-starter/starter/sample_manifest_table/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{46047CCB-7603-40D1-B3A9-DE9CA6A93697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B744AE01-3583-4320-92BA-0A3CAF704C83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1500" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="55">
   <si>
     <t>Flight No</t>
   </si>
@@ -88,60 +88,81 @@
     <t>Chicago</t>
   </si>
   <si>
-    <t>Avkash</t>
-  </si>
-  <si>
-    <t>Chauhan</t>
+    <t>14 Jan 2022</t>
+  </si>
+  <si>
+    <t>Priyanka</t>
+  </si>
+  <si>
+    <t>Chopra Jonas</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>19C</t>
+  </si>
+  <si>
+    <t>18 July 1982</t>
+  </si>
+  <si>
+    <t>UA-123</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>6 Jun 2022</t>
+  </si>
+  <si>
+    <t>Shanti</t>
+  </si>
+  <si>
+    <t>Kumari</t>
+  </si>
+  <si>
+    <t>1F</t>
+  </si>
+  <si>
+    <t>9 Dec 1997</t>
+  </si>
+  <si>
+    <t>UA-872</t>
+  </si>
+  <si>
+    <t>Gothenburg</t>
+  </si>
+  <si>
+    <t>Amsterdam</t>
+  </si>
+  <si>
+    <t>11 Sep 2022</t>
+  </si>
+  <si>
+    <t>Harsh</t>
+  </si>
+  <si>
+    <t>Srivastava</t>
   </si>
   <si>
     <t>M</t>
   </si>
   <si>
-    <t>20A</t>
-  </si>
-  <si>
-    <t>UA-123</t>
-  </si>
-  <si>
-    <t>New York</t>
-  </si>
-  <si>
-    <t>London</t>
-  </si>
-  <si>
-    <t>Shanti</t>
-  </si>
-  <si>
-    <t>Kumari</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>1F</t>
-  </si>
-  <si>
-    <t>UA-872</t>
-  </si>
-  <si>
-    <t>Gothenburg</t>
-  </si>
-  <si>
-    <t>Amsterdam</t>
-  </si>
-  <si>
-    <t>Harsh</t>
-  </si>
-  <si>
-    <t>Srivastava</t>
-  </si>
-  <si>
     <t>15B</t>
   </si>
   <si>
+    <t>8 Jun 1998</t>
+  </si>
+  <si>
     <t>UA-340</t>
   </si>
   <si>
+    <t>12 Sep 2022</t>
+  </si>
+  <si>
     <t>Neeha Rathna</t>
   </si>
   <si>
@@ -151,6 +172,9 @@
     <t>4D</t>
   </si>
   <si>
+    <t>15 Apr 1998</t>
+  </si>
+  <si>
     <t>UA-209</t>
   </si>
   <si>
@@ -160,6 +184,9 @@
     <t>Mumbai</t>
   </si>
   <si>
+    <t>29 Jul 2022</t>
+  </si>
+  <si>
     <t>Jackie</t>
   </si>
   <si>
@@ -167,16 +194,16 @@
   </si>
   <si>
     <t>13C</t>
+  </si>
+  <si>
+    <t>23 Dec 1980</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-  </numFmts>
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -318,6 +345,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="33">
@@ -665,9 +698,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1023,10 +1056,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
@@ -1034,10 +1067,12 @@
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="17.25" customWidth="1"/>
     <col min="3" max="3" width="13.125" customWidth="1"/>
-    <col min="4" max="4" width="17.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.25" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.375" customWidth="1"/>
-    <col min="10" max="10" width="16.125" customWidth="1"/>
+    <col min="6" max="6" width="20.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.375" customWidth="1"/>
+    <col min="8" max="8" width="21.625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16.125" style="1" customWidth="1"/>
     <col min="11" max="11" width="21.125" customWidth="1"/>
     <col min="12" max="12" width="22.125" customWidth="1"/>
     <col min="13" max="13" width="20.375" customWidth="1"/>
@@ -1061,19 +1096,19 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
@@ -1092,7 +1127,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" ht="15.75">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -1102,73 +1137,73 @@
       <c r="C2" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="3">
-        <v>44671</v>
-      </c>
-      <c r="E2" s="4">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="D2" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="E2" s="3">
+        <v>0.1875</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="G2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" t="s">
         <v>20</v>
       </c>
+      <c r="H2" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="15.75">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="3">
-        <v>32874</v>
-      </c>
-      <c r="K2" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M2" t="b">
-        <v>0</v>
-      </c>
-      <c r="N2" t="b">
-        <v>0</v>
-      </c>
-      <c r="O2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="3">
-        <v>44718</v>
-      </c>
-      <c r="E3" s="4">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="F3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" t="s">
-        <v>27</v>
-      </c>
       <c r="I3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="3">
-        <v>35773</v>
+        <v>30</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="K3" t="b">
         <v>0</v>
@@ -1188,34 +1223,34 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="3">
-        <v>44815</v>
-      </c>
-      <c r="E4" s="4">
-        <v>0.1875</v>
-      </c>
-      <c r="F4" t="s">
-        <v>32</v>
+        <v>34</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.81111111111111101</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="G4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" t="s">
-        <v>20</v>
+        <v>37</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="I4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J4" s="3">
-        <v>35954</v>
+        <v>39</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="K4" t="b">
         <v>0</v>
@@ -1235,34 +1270,34 @@
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="3">
-        <v>44816</v>
-      </c>
-      <c r="E5" s="4">
+        <v>33</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="3">
         <v>0.98958333333333337</v>
       </c>
-      <c r="F5" t="s">
-        <v>36</v>
+      <c r="F5" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" t="s">
-        <v>27</v>
+        <v>44</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="I5" t="s">
-        <v>38</v>
-      </c>
-      <c r="J5" s="3">
-        <v>35900</v>
+        <v>45</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="K5" t="b">
         <v>0</v>
@@ -1282,34 +1317,34 @@
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="3">
-        <v>44771</v>
-      </c>
-      <c r="E6" s="4">
+        <v>49</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="3">
         <v>0.72222222222222221</v>
       </c>
-      <c r="F6" t="s">
-        <v>42</v>
+      <c r="F6" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="G6" t="s">
-        <v>43</v>
-      </c>
-      <c r="H6" t="s">
-        <v>20</v>
+        <v>52</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="I6" t="s">
-        <v>44</v>
-      </c>
-      <c r="J6" s="3">
-        <v>29578</v>
+        <v>53</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="K6" t="b">
         <v>0</v>
@@ -1326,6 +1361,9 @@
       <c r="O6" t="b">
         <v>0</v>
       </c>
+    </row>
+    <row r="9" spans="1:15" ht="15.75">
+      <c r="F9" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/material_preparation_step/passenger_manifest_table.xlsx
+++ b/material_preparation_step/passenger_manifest_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/avkashchauhan99/work/avkash/udacity/nd073-c3-building-computer-vision-solutions-with-azure-project-starter/starter/sample_manifest_table/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B744AE01-3583-4320-92BA-0A3CAF704C83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE9ED3BE-6DCE-430A-9044-69A95EE8C655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1500" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -163,10 +163,10 @@
     <t>12 Sep 2022</t>
   </si>
   <si>
-    <t>Neeha Rathna</t>
-  </si>
-  <si>
-    <t>Janjanam</t>
+    <t>Neeha</t>
+  </si>
+  <si>
+    <t>Rathna Janjanam</t>
   </si>
   <si>
     <t>4D</t>
@@ -1059,7 +1059,7 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>

--- a/material_preparation_step/passenger_manifest_table.xlsx
+++ b/material_preparation_step/passenger_manifest_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/avkashchauhan99/work/avkash/udacity/nd073-c3-building-computer-vision-solutions-with-azure-project-starter/starter/sample_manifest_table/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE9ED3BE-6DCE-430A-9044-69A95EE8C655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3B6C22E-9548-4836-896A-FBFEA0384C0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1500" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -163,10 +163,10 @@
     <t>12 Sep 2022</t>
   </si>
   <si>
-    <t>Neeha</t>
-  </si>
-  <si>
-    <t>Rathna Janjanam</t>
+    <t>Neeha Rathna</t>
+  </si>
+  <si>
+    <t>Janjanam</t>
   </si>
   <si>
     <t>4D</t>
@@ -1059,7 +1059,7 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
